--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/130.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/130.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1631694675470546</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.247661239380559</v>
+        <v>-1.251942100383103</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.09715648417732269</v>
+        <v>-0.1107904132502281</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1861376550296624</v>
+        <v>-0.1878050299494801</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1466871033534669</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.334456718240809</v>
+        <v>-1.337686344617899</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1924392225900244</v>
+        <v>-0.2003191021366586</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.188767201641389</v>
+        <v>-0.1902038889628432</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1319441294336583</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.457892103942412</v>
+        <v>-1.460655974978502</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.203767735727385</v>
+        <v>-0.2147151763130184</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1974749284555685</v>
+        <v>-0.1986035456298409</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1210109463918915</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.624852983282094</v>
+        <v>-1.633968063513637</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2059490475752025</v>
+        <v>-0.2168541467661996</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1888329038054799</v>
+        <v>-0.1900403635766614</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1126546068566249</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.739512019909245</v>
+        <v>-1.750063787462242</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2115059906092011</v>
+        <v>-0.2272715898948332</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1979071026904775</v>
+        <v>-0.1984444003879318</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1048753695204516</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.592829748504194</v>
+        <v>-1.603618043847918</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1243644803514063</v>
+        <v>-0.1444897832364918</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1748281225174836</v>
+        <v>-0.1705282808897575</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.09608841843763979</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.407536505335062</v>
+        <v>-1.420782061615785</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04632782998851814</v>
+        <v>-0.06783871851187601</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1551539744924889</v>
+        <v>-0.1517885636429444</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.08585854889751465</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.17550274263167</v>
+        <v>-1.17849146107376</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0757190499786309</v>
+        <v>0.05666396234418147</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1515374353713081</v>
+        <v>-0.1476537074494909</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.07329060454606459</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8106557053387674</v>
+        <v>-0.8116397777520399</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1659383416120612</v>
+        <v>0.1529176327373374</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.128702283229496</v>
+        <v>-0.1199843360786802</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.05673157159693137</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.460511352321316</v>
+        <v>-0.4622429693571337</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1675531548006062</v>
+        <v>0.1627729573509712</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06366152092378621</v>
+        <v>-0.05644742330660633</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.03306144965936933</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06099154488563485</v>
+        <v>0.05129974565818291</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1512093764709743</v>
+        <v>0.1519277201317013</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04734301533182034</v>
+        <v>0.05014192752209232</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.0008780423657593604</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5555740753924111</v>
+        <v>0.5460268209259591</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09084514820044502</v>
+        <v>0.09199566609608108</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1890684234682368</v>
+        <v>0.1906000139156001</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.04693683805068891</v>
       </c>
       <c r="E14" t="n">
-        <v>1.121412792927896</v>
+        <v>1.103311116696809</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01763496490598039</v>
+        <v>-0.01125601479680029</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3013855429575703</v>
+        <v>0.3073483793608414</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.104775709886646</v>
       </c>
       <c r="E15" t="n">
-        <v>1.756281124153452</v>
+        <v>1.737050830748094</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.160078716703124</v>
+        <v>-0.1489181090962179</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5076932582991512</v>
+        <v>0.5080203090715149</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1733404706929074</v>
       </c>
       <c r="E16" t="n">
-        <v>2.43347186939018</v>
+        <v>2.416919304183548</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3279784069652607</v>
+        <v>-0.32718998099617</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6352737205308443</v>
+        <v>0.6349525099508444</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2517758850744633</v>
       </c>
       <c r="E17" t="n">
-        <v>3.079470147212733</v>
+        <v>3.052685564985013</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4670582079609506</v>
+        <v>-0.4615815675719521</v>
       </c>
       <c r="G17" t="n">
-        <v>0.78008275023526</v>
+        <v>0.7806477888464416</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3394661749937191</v>
       </c>
       <c r="E18" t="n">
-        <v>3.694275957621114</v>
+        <v>3.677638709625209</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6110072693398211</v>
+        <v>-0.6021053561295507</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9524618680403045</v>
+        <v>0.9491636194029418</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4358379125259924</v>
       </c>
       <c r="E19" t="n">
-        <v>4.212852918453883</v>
+        <v>4.201762393155341</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7712212664514144</v>
+        <v>-0.7586166712825996</v>
       </c>
       <c r="G19" t="n">
-        <v>1.075070866522454</v>
+        <v>1.077221517360362</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5401532748443765</v>
       </c>
       <c r="E20" t="n">
-        <v>4.702741394348388</v>
+        <v>4.700440358557116</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9517635131327296</v>
+        <v>-0.9440602994050953</v>
       </c>
       <c r="G20" t="n">
-        <v>1.23445409627032</v>
+        <v>1.232233363124048</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6503520883291971</v>
       </c>
       <c r="E21" t="n">
-        <v>5.203978824053527</v>
+        <v>5.206785036484253</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.152068970772585</v>
+        <v>-1.14087770215577</v>
       </c>
       <c r="G21" t="n">
-        <v>1.399251184339275</v>
+        <v>1.39729763999364</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.762178776323318</v>
       </c>
       <c r="E22" t="n">
-        <v>5.594103673944331</v>
+        <v>5.603487403024601</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.343030120630625</v>
+        <v>-1.336127013256808</v>
       </c>
       <c r="G22" t="n">
-        <v>1.52095349295697</v>
+        <v>1.518147280526243</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8677941013296427</v>
       </c>
       <c r="E23" t="n">
-        <v>5.851999268481989</v>
+        <v>5.863811057537441</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.540576087378662</v>
+        <v>-1.531452246858574</v>
       </c>
       <c r="G23" t="n">
-        <v>1.665674919775931</v>
+        <v>1.659614260150569</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.9565447187281018</v>
       </c>
       <c r="E24" t="n">
-        <v>6.142572199342275</v>
+        <v>6.160130737683542</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.688785569086804</v>
+        <v>-1.677807467491262</v>
       </c>
       <c r="G24" t="n">
-        <v>1.816551909346164</v>
+        <v>1.806509698576893</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.019356782635006</v>
       </c>
       <c r="E25" t="n">
-        <v>6.273538513096785</v>
+        <v>6.296979585196324</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.85219999161367</v>
+        <v>-1.837379773466901</v>
       </c>
       <c r="G25" t="n">
-        <v>1.855764420923698</v>
+        <v>1.849900867790609</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.052464465145891</v>
       </c>
       <c r="E26" t="n">
-        <v>6.339243597283858</v>
+        <v>6.372408589668849</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.900239953948839</v>
+        <v>-1.888829678118387</v>
       </c>
       <c r="G26" t="n">
-        <v>1.861845521222333</v>
+        <v>1.860487676497788</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.056745765060109</v>
       </c>
       <c r="E27" t="n">
-        <v>6.3514262385544</v>
+        <v>6.391108885617208</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.969691521537184</v>
+        <v>-1.956516047564823</v>
       </c>
       <c r="G27" t="n">
-        <v>1.958842356093762</v>
+        <v>1.958859876670852</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.037439007000992</v>
       </c>
       <c r="E28" t="n">
-        <v>6.442658803562921</v>
+        <v>6.482851007409456</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.048250869116617</v>
+        <v>-2.032387446608894</v>
       </c>
       <c r="G28" t="n">
-        <v>2.004249851721022</v>
+        <v>2.007034163430385</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9992149190975788</v>
       </c>
       <c r="E29" t="n">
-        <v>6.337990876021858</v>
+        <v>6.380727943690847</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.105780414018647</v>
+        <v>-2.084007446862971</v>
       </c>
       <c r="G29" t="n">
-        <v>2.0168121054952</v>
+        <v>2.024326973019108</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9469532142870339</v>
       </c>
       <c r="E30" t="n">
-        <v>6.306150147255321</v>
+        <v>6.355371288496036</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.213587444955163</v>
+        <v>-2.186505742940943</v>
       </c>
       <c r="G30" t="n">
-        <v>2.047876088677374</v>
+        <v>2.052535102135464</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.8843725908851009</v>
       </c>
       <c r="E31" t="n">
-        <v>6.205942666631985</v>
+        <v>6.260733891339515</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.260529451125969</v>
+        <v>-2.228470445169841</v>
       </c>
       <c r="G31" t="n">
-        <v>1.984731928841755</v>
+        <v>1.994892403506388</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8144148665509671</v>
       </c>
       <c r="E32" t="n">
-        <v>6.007520671029401</v>
+        <v>6.065319594804205</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.289769104218552</v>
+        <v>-2.258641608944424</v>
       </c>
       <c r="G32" t="n">
-        <v>1.944712010669947</v>
+        <v>1.951610737899491</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7406334853571592</v>
       </c>
       <c r="E33" t="n">
-        <v>5.823890422635815</v>
+        <v>5.884263411194889</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.335080966695858</v>
+        <v>-2.302833614536003</v>
       </c>
       <c r="G33" t="n">
-        <v>1.930057507981497</v>
+        <v>1.934135422299405</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.6657337528916484</v>
       </c>
       <c r="E34" t="n">
-        <v>5.58459000058397</v>
+        <v>5.648913879277043</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.419765216016653</v>
+        <v>-2.390288305109298</v>
       </c>
       <c r="G34" t="n">
-        <v>1.855482631642153</v>
+        <v>1.861844061174242</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5925710269632695</v>
       </c>
       <c r="E35" t="n">
-        <v>5.390654732764749</v>
+        <v>5.455368444298095</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.432226726472559</v>
+        <v>-2.402451235730613</v>
       </c>
       <c r="G35" t="n">
-        <v>1.796144817179533</v>
+        <v>1.801510493913622</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.522947037124188</v>
       </c>
       <c r="E36" t="n">
-        <v>5.19980600660971</v>
+        <v>5.262802701588147</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.407911815590611</v>
+        <v>-2.380490652395255</v>
       </c>
       <c r="G36" t="n">
-        <v>1.703129533452012</v>
+        <v>1.707790006958193</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4589104266260692</v>
       </c>
       <c r="E37" t="n">
-        <v>4.84926306046344</v>
+        <v>4.908178921027788</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.349574864094309</v>
+        <v>-2.325850542665133</v>
       </c>
       <c r="G37" t="n">
-        <v>1.610435460304491</v>
+        <v>1.613139469368854</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4018802027574953</v>
       </c>
       <c r="E38" t="n">
-        <v>4.647141302998494</v>
+        <v>4.699927881677207</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.236811699913203</v>
+        <v>-2.217867575933662</v>
       </c>
       <c r="G38" t="n">
-        <v>1.525206613045787</v>
+        <v>1.530630691703513</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3528668424443104</v>
       </c>
       <c r="E39" t="n">
-        <v>4.305002393663496</v>
+        <v>4.360113368902935</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.206515702026847</v>
+        <v>-2.18634732772308</v>
       </c>
       <c r="G39" t="n">
-        <v>1.413762602314817</v>
+        <v>1.418945773037543</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3117217484892799</v>
       </c>
       <c r="E40" t="n">
-        <v>3.97763625091231</v>
+        <v>4.038410752696385</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.145358667642955</v>
+        <v>-2.132586166943685</v>
       </c>
       <c r="G40" t="n">
-        <v>1.31339451640148</v>
+        <v>1.322830807213023</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2775127697561905</v>
       </c>
       <c r="E41" t="n">
-        <v>3.694232156178387</v>
+        <v>3.757709206978733</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.057794473462842</v>
+        <v>-2.049671495909071</v>
       </c>
       <c r="G41" t="n">
-        <v>1.198701898668239</v>
+        <v>1.209455152857781</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2493549002125961</v>
       </c>
       <c r="E42" t="n">
-        <v>3.387376769008287</v>
+        <v>3.45809419829145</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.952073851248234</v>
+        <v>-1.941960828146555</v>
       </c>
       <c r="G42" t="n">
-        <v>1.095853191048448</v>
+        <v>1.106149450185536</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.22482014475891</v>
       </c>
       <c r="E43" t="n">
-        <v>3.147842739261897</v>
+        <v>3.213118569310243</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.914192903529607</v>
+        <v>-1.900799152367657</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9970210757267471</v>
+        <v>1.00917305598738</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.20169203517743</v>
       </c>
       <c r="E44" t="n">
-        <v>2.895378523622419</v>
+        <v>2.963499987399946</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.8732334444113</v>
+        <v>-1.861442826053167</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8764488443314159</v>
+        <v>0.8896418388808669</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1779484089821995</v>
       </c>
       <c r="E45" t="n">
-        <v>2.630441117142309</v>
+        <v>2.700949759548471</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.740382208571427</v>
+        <v>-1.732083295222702</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7606407498567197</v>
+        <v>0.7718860402528985</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1523364755594467</v>
       </c>
       <c r="E46" t="n">
-        <v>2.4240574793</v>
+        <v>2.487994445248983</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.668204731197355</v>
+        <v>-1.66416331808172</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7372741402098169</v>
+        <v>0.7468126343877234</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1250021856524473</v>
       </c>
       <c r="E47" t="n">
-        <v>2.116950963858264</v>
+        <v>2.180595920189066</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.61507650126537</v>
+        <v>-1.608897577744644</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6157572576996677</v>
+        <v>0.6215434282839389</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.09670764704538734</v>
       </c>
       <c r="E48" t="n">
-        <v>1.963061895076488</v>
+        <v>2.02291656656329</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.556473090992476</v>
+        <v>-1.554592549051386</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5463524116502319</v>
+        <v>0.5567494141055926</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.06846336062375652</v>
       </c>
       <c r="E49" t="n">
-        <v>1.771786834878903</v>
+        <v>1.826801446944343</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.528107276682302</v>
+        <v>-1.520272658626486</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4729368134950697</v>
+        <v>0.4838433727341577</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.04110603504412267</v>
       </c>
       <c r="E50" t="n">
-        <v>1.668818403315658</v>
+        <v>1.720648650494826</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.416603403979605</v>
+        <v>-1.410317896948243</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4154459598674488</v>
+        <v>0.4209065397274473</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.01547873252691782</v>
       </c>
       <c r="E51" t="n">
-        <v>1.508418980096519</v>
+        <v>1.553735952742143</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.358356245440893</v>
+        <v>-1.35165170460744</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3435079303802863</v>
+        <v>0.3486107984580122</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.008080214848634398</v>
       </c>
       <c r="E52" t="n">
-        <v>1.406945637778364</v>
+        <v>1.445257299683809</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.301125280373454</v>
+        <v>-1.296406404943637</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2699565477526696</v>
+        <v>0.270926019685033</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.02935675649717737</v>
       </c>
       <c r="E53" t="n">
-        <v>1.192522975147513</v>
+        <v>1.231282871816866</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.250533153975377</v>
+        <v>-1.248757735496832</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2286809882226807</v>
+        <v>0.2292095256315897</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.04808122747483189</v>
       </c>
       <c r="E54" t="n">
-        <v>1.246076079073953</v>
+        <v>1.272314603315673</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.24178162571847</v>
+        <v>-1.241082262682925</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1481724764418842</v>
+        <v>0.1513437008953379</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.06425914482607004</v>
       </c>
       <c r="E55" t="n">
-        <v>1.071471847978364</v>
+        <v>1.101852528653992</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.21215286980966</v>
+        <v>-1.210808165517933</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09923166443462458</v>
+        <v>0.1019517340279875</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.07791523343491756</v>
       </c>
       <c r="E56" t="n">
-        <v>1.05287667549255</v>
+        <v>1.080348940371088</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.177859260250396</v>
+        <v>-1.177470887458214</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06286478658627072</v>
+        <v>0.06416276933908854</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.08931411502730563</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9497534788316689</v>
+        <v>0.9793982952694792</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.143343723381314</v>
+        <v>-1.142080781782678</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03511949271473271</v>
+        <v>0.03910104385864073</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.09865817021301761</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8912931532716847</v>
+        <v>0.9148320485933147</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.12240079356532</v>
+        <v>-1.120222401813684</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.05539618868115207</v>
+        <v>-0.05056488954833519</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1065620267660567</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7775743876150788</v>
+        <v>0.8038859142613445</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.055594833117702</v>
+        <v>-1.050138633401976</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1263778866687694</v>
+        <v>-0.1225949020652249</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.112800933818382</v>
       </c>
       <c r="E60" t="n">
-        <v>0.777937939589715</v>
+        <v>0.7973259181888916</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9999436400846257</v>
+        <v>-0.9964030234641721</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1523419218693988</v>
+        <v>-0.1494378862165814</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1176676163367431</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6541200212882937</v>
+        <v>0.6752235563942881</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9991216330094441</v>
+        <v>-0.9945779633505363</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1961579650775688</v>
+        <v>-0.1916580968613882</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.121386978306204</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5810621349154043</v>
+        <v>0.6031862436369438</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9999743010945348</v>
+        <v>-0.9972761322225355</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2659701645443683</v>
+        <v>-0.2632457148067326</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1241795867951343</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5310686282345995</v>
+        <v>0.5520728800704121</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.065984535332608</v>
+        <v>-1.058123636411155</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2963187241619964</v>
+        <v>-0.2928700905712701</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1263389614138042</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4491190489880761</v>
+        <v>0.4702839061138886</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.029090580123436</v>
+        <v>-1.026294588029346</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3499579709258003</v>
+        <v>-0.3457778532415287</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1280023561045825</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3866917727650929</v>
+        <v>0.4061585939611785</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9720844624619969</v>
+        <v>-0.9737795782955418</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3780814172528836</v>
+        <v>-0.3764257227177931</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1293649022459871</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3360251839143792</v>
+        <v>0.3575608932552825</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.016164774374621</v>
+        <v>-1.012031378229259</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4009545306450593</v>
+        <v>-0.3974635556596966</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1303981433094596</v>
       </c>
       <c r="E67" t="n">
-        <v>0.362749904170372</v>
+        <v>0.3762100875204593</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.009166763874896</v>
+        <v>-1.007487708570351</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4194752406782361</v>
+        <v>-0.4157229170846008</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1311028876727046</v>
       </c>
       <c r="E68" t="n">
-        <v>0.267040831715125</v>
+        <v>0.2825947240275754</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.052384187365794</v>
+        <v>-1.048777868581249</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4277026116705067</v>
+        <v>-0.4249650215000528</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1314308774263585</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2092608885655041</v>
+        <v>0.2173364145563201</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.087853135638238</v>
+        <v>-1.085849949657512</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4385974905248674</v>
+        <v>-0.4333938791288687</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.131221324637448</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1747760127063316</v>
+        <v>0.1833829962022384</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.164607863777309</v>
+        <v>-1.159196925552401</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4768624308914025</v>
+        <v>-0.4742752256743124</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1299509822384863</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1132933875981663</v>
+        <v>0.1197248994386191</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.29551139546391</v>
+        <v>-1.284902686035367</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5458394828502022</v>
+        <v>-0.5395992373096584</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.127388983789928</v>
       </c>
       <c r="E72" t="n">
-        <v>0.06170550840208921</v>
+        <v>0.06395398246208861</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.332060779323627</v>
+        <v>-1.32391809112063</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5335458779247509</v>
+        <v>-0.5302359489026609</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1230257121756799</v>
       </c>
       <c r="E73" t="n">
-        <v>0.05162241628627373</v>
+        <v>0.04960754992081973</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.332487113366173</v>
+        <v>-1.319695632041722</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5582017100359261</v>
+        <v>-0.5558729333309268</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1166469105381754</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1041724671742596</v>
+        <v>0.1056076944476229</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.368573661981072</v>
+        <v>-1.355341246133167</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5688177197049233</v>
+        <v>-0.5671883060354692</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1081292871079756</v>
       </c>
       <c r="E75" t="n">
-        <v>0.137861616823887</v>
+        <v>0.1337136201976153</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.434670039056509</v>
+        <v>-1.421951560136603</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5389276151878404</v>
+        <v>-0.5317777596866605</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.09703179518534849</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1824602458087841</v>
+        <v>0.1759615717561494</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.35733859192153</v>
+        <v>-1.346234926190169</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5389465958130222</v>
+        <v>-0.5307820068886608</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.0832278770250407</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3108174536248405</v>
+        <v>0.307450582727205</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.351647324463168</v>
+        <v>-1.342177452545534</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4588133163915892</v>
+        <v>-0.4567882296894988</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.06617385192512287</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4221855418550833</v>
+        <v>0.4104540554446319</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.303509538905908</v>
+        <v>-1.290634834840275</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4783984014830385</v>
+        <v>-0.4731991702313126</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.04599179012548425</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5001856910156988</v>
+        <v>0.4919159786287919</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.269148767134463</v>
+        <v>-1.26117544451001</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4259899752598708</v>
+        <v>-0.4240904526935985</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.02292632000092829</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6223479147820296</v>
+        <v>0.6136883695548501</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.281570856291914</v>
+        <v>-1.272420734906189</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3903312207356076</v>
+        <v>-0.3868168849807904</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.002373833570268834</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6546689993704754</v>
+        <v>0.6471074103076593</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.230003417769109</v>
+        <v>-1.21909393843384</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3016230788762678</v>
+        <v>-0.2977933727338142</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.02891511761360901</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7586142031065385</v>
+        <v>0.7533478096426308</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.162851425923946</v>
+        <v>-1.151236743360767</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2823256232587275</v>
+        <v>-0.2808451344945461</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.05566734236758592</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8850353871540499</v>
+        <v>0.8775219796782338</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.128693600837137</v>
+        <v>-1.117448310440958</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2201027537684715</v>
+        <v>-0.2201071339127442</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.08131864458826236</v>
       </c>
       <c r="E84" t="n">
-        <v>1.093685019633448</v>
+        <v>1.082861683135542</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.059328176086155</v>
+        <v>-1.045574523069795</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1889730684222071</v>
+        <v>-0.1889526277489344</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1039841713612489</v>
       </c>
       <c r="E85" t="n">
-        <v>1.175227245462608</v>
+        <v>1.159360902858704</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9519766801540023</v>
+        <v>-0.9449567689329132</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1317421033547679</v>
+        <v>-0.1322516601384951</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1216591285234126</v>
       </c>
       <c r="E86" t="n">
-        <v>1.362836124903922</v>
+        <v>1.342354570284654</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.8659608669742981</v>
+        <v>-0.8591716433515726</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06184960124296852</v>
+        <v>-0.05985809564696905</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1314709181945486</v>
       </c>
       <c r="E87" t="n">
-        <v>1.459631473138805</v>
+        <v>1.437959979325447</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7770672990074128</v>
+        <v>-0.7676383084363244</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01419801169998132</v>
+        <v>-0.01653554869352615</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1316201705405819</v>
       </c>
       <c r="E88" t="n">
-        <v>1.548805370339144</v>
+        <v>1.522698250425606</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6487042509989928</v>
+        <v>-0.6420128505983582</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01952033891146417</v>
+        <v>0.0177463804810101</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1195453566184021</v>
       </c>
       <c r="E89" t="n">
-        <v>1.632842818355667</v>
+        <v>1.607976739319401</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5516650747329279</v>
+        <v>-0.5449327929857479</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07017232728126875</v>
+        <v>0.06713250715599685</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.09454687611349695</v>
       </c>
       <c r="E90" t="n">
-        <v>1.672392601042202</v>
+        <v>1.651395649446844</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4523832645992273</v>
+        <v>-0.4435368332164115</v>
       </c>
       <c r="G90" t="n">
-        <v>0.08119277027144761</v>
+        <v>0.07886983375881187</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.05608076208325831</v>
       </c>
       <c r="E91" t="n">
-        <v>1.677812299555655</v>
+        <v>1.660808579488932</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2774870238854561</v>
+        <v>-0.2716891729164576</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1137474625544389</v>
+        <v>0.1109733711817123</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.005589012514611152</v>
       </c>
       <c r="E92" t="n">
-        <v>1.676471975408201</v>
+        <v>1.666613730698385</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1392029490993114</v>
+        <v>-0.1340168582804037</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1374002416271598</v>
+        <v>0.1353561742998876</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.05318836430066987</v>
       </c>
       <c r="E93" t="n">
-        <v>1.694326903511923</v>
+        <v>1.68455188154329</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0296282518448251</v>
+        <v>0.0320796725894608</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1207031316595279</v>
+        <v>0.1198767444400736</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1151111762007603</v>
       </c>
       <c r="E94" t="n">
-        <v>1.638147173069939</v>
+        <v>1.627942896962578</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1259447043058901</v>
+        <v>0.1317615359000704</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05822767384954469</v>
+        <v>0.05823643413809014</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1740162503144872</v>
       </c>
       <c r="E95" t="n">
-        <v>1.570092871504593</v>
+        <v>1.559637467125596</v>
       </c>
       <c r="F95" t="n">
-        <v>0.225525824298227</v>
+        <v>0.2253841996334089</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02340698692946313</v>
+        <v>0.02100520781991832</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.225543961496889</v>
       </c>
       <c r="E96" t="n">
-        <v>1.460313315597259</v>
+        <v>1.448469405483808</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2726780773941235</v>
+        <v>0.2740826436575776</v>
       </c>
       <c r="G96" t="n">
-        <v>0.002922512214014084</v>
+        <v>0.0009616676279237017</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2651110298311615</v>
       </c>
       <c r="E97" t="n">
-        <v>1.319050742705661</v>
+        <v>1.307989418368936</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3300127058760172</v>
+        <v>0.3302098123682898</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03361811135715792</v>
+        <v>-0.03454086175061222</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2931388144851828</v>
       </c>
       <c r="E98" t="n">
-        <v>1.2073643639916</v>
+        <v>1.191740389370786</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3492868007241029</v>
+        <v>0.3445153635630133</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04333035125788259</v>
+        <v>-0.04454219117333681</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3102587873185071</v>
       </c>
       <c r="E99" t="n">
-        <v>1.051181559659005</v>
+        <v>1.041085327110372</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3537253469204654</v>
+        <v>0.3494050646194665</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09126373008241517</v>
+        <v>-0.09126519013050607</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3214327862667555</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9620719045746656</v>
+        <v>0.9531407904025772</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3100932697717498</v>
+        <v>0.3022440512350246</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1376406976420391</v>
+        <v>-0.1350009306936762</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3300428978828694</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8396059908054258</v>
+        <v>0.8308617627889736</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3522682189257385</v>
+        <v>0.3458571477585584</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09089725801159709</v>
+        <v>-0.09209595749423313</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3394632855600969</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6961197646713734</v>
+        <v>0.6898444779766478</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2890787975993009</v>
+        <v>0.2840416316856659</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1918975447482972</v>
+        <v>-0.1883072864927527</v>
       </c>
     </row>
   </sheetData>
